--- a/Revised-Data 25-08-24.xlsx
+++ b/Revised-Data 25-08-24.xlsx
@@ -18,12 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="119">
   <si>
-    <t>NAME OF STAFF</t>
-  </si>
-  <si>
-    <t>PER.NO.</t>
-  </si>
-  <si>
     <t>ESIC NO.</t>
   </si>
   <si>
@@ -373,6 +367,12 @@
   </si>
   <si>
     <t>Pratibha Yadav</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Code</t>
   </si>
 </sst>
 </file>
@@ -717,7 +717,7 @@
   <dimension ref="A1:L107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -728,51 +728,51 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>70001</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1">
         <v>100174872843</v>
@@ -804,13 +804,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>70003</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1">
         <v>100268405363</v>
@@ -842,13 +842,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>70004</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1">
         <v>100251496120</v>
@@ -880,13 +880,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>70005</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1">
         <v>100372715034</v>
@@ -918,13 +918,13 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>70007</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1">
         <v>100572509670</v>
@@ -956,13 +956,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>70008</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1">
         <v>100342515544</v>
@@ -994,13 +994,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>70009</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1">
         <v>100261990336</v>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>70010</v>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>70011</v>
@@ -1108,13 +1108,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>70012</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1">
         <v>100359105475</v>
@@ -1146,13 +1146,13 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>70013</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D12" s="1">
         <v>100279745483</v>
@@ -1184,13 +1184,13 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>70018</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D13" s="1">
         <v>100422538582</v>
@@ -1222,13 +1222,13 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>70021</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D14" s="1">
         <v>101309481874</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>70022</v>
@@ -1298,7 +1298,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B16">
         <v>70023</v>
@@ -1336,13 +1336,13 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>70028</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D17" s="1">
         <v>101360439282</v>
@@ -1374,7 +1374,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>70041</v>
@@ -1412,7 +1412,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>70044</v>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20">
         <v>70045</v>
@@ -1488,7 +1488,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B21">
         <v>70051</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B22">
         <v>70054</v>
@@ -1564,7 +1564,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B23">
         <v>70055</v>
@@ -1602,13 +1602,13 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B24">
         <v>70066</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D24" s="1">
         <v>100161156324</v>
@@ -1640,13 +1640,13 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B25">
         <v>70068</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D25" s="1">
         <v>100590065527</v>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B26">
         <v>70069</v>
@@ -1716,7 +1716,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>70083</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B28">
         <v>70098</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B29">
         <v>70110</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B30">
         <v>70112</v>
@@ -1868,13 +1868,13 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B31">
         <v>70113</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D31" s="1">
         <v>100153699663</v>
@@ -1906,13 +1906,13 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B32">
         <v>70115</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D32" s="1">
         <v>101490412382</v>
@@ -1944,13 +1944,13 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B33">
         <v>70131</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D33" s="1">
         <v>100979743481</v>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B34">
         <v>70135</v>
@@ -2020,13 +2020,13 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B35">
         <v>70137</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D35" s="1">
         <v>100234740704</v>
@@ -2058,13 +2058,13 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B36">
         <v>70150</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D36" s="1">
         <v>101578389766</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>70154</v>
@@ -2134,7 +2134,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B38">
         <v>70155</v>
@@ -2172,7 +2172,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B39">
         <v>70157</v>
@@ -2210,13 +2210,13 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B40">
         <v>70159</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D40" s="1">
         <v>101602414460</v>
@@ -2248,7 +2248,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B41">
         <v>70163</v>
@@ -2286,7 +2286,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>70165</v>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B43">
         <v>70168</v>
@@ -2362,7 +2362,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B44">
         <v>70169</v>
@@ -2400,7 +2400,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>70173</v>
@@ -2438,13 +2438,13 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B46">
         <v>70175</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D46" s="1">
         <v>100531193317</v>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B47">
         <v>70183</v>
@@ -2514,13 +2514,13 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B48">
         <v>70186</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D48" s="1">
         <v>100882268129</v>
@@ -2552,13 +2552,13 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B49">
         <v>70187</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D49" s="1">
         <v>101490988913</v>
@@ -2590,13 +2590,13 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B50">
         <v>70188</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D50" s="1">
         <v>101360438894</v>
@@ -2628,13 +2628,13 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B51">
         <v>70189</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D51" s="1">
         <v>101360439194</v>
@@ -2666,7 +2666,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B52">
         <v>70190</v>
@@ -2704,7 +2704,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B53">
         <v>70191</v>
@@ -2742,7 +2742,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B54">
         <v>70194</v>
@@ -2780,7 +2780,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B55">
         <v>70195</v>
@@ -2818,7 +2818,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B56">
         <v>70197</v>
@@ -2856,7 +2856,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>70198</v>
@@ -2894,7 +2894,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B58">
         <v>70199</v>
@@ -2932,7 +2932,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B59">
         <v>70200</v>
@@ -2970,7 +2970,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B60">
         <v>70201</v>
@@ -3008,7 +3008,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B61">
         <v>70202</v>
@@ -3046,7 +3046,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B62">
         <v>70203</v>
@@ -3084,13 +3084,13 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B63">
         <v>70204</v>
       </c>
       <c r="C63" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D63" s="1">
         <v>101503557193</v>
@@ -3122,13 +3122,13 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B64">
         <v>70205</v>
       </c>
       <c r="C64" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D64" s="1">
         <v>101506244809</v>
@@ -3160,7 +3160,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B65">
         <v>70206</v>
@@ -3198,7 +3198,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B66">
         <v>70207</v>
@@ -3236,7 +3236,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B67">
         <v>70209</v>
@@ -3274,13 +3274,13 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B68">
         <v>70215</v>
       </c>
       <c r="C68" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D68" s="1">
         <v>101284013919</v>
@@ -3312,13 +3312,13 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B69">
         <v>70216</v>
       </c>
       <c r="C69" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D69" s="1">
         <v>100278324448</v>
@@ -3350,13 +3350,13 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B70">
         <v>70217</v>
       </c>
       <c r="C70" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D70" s="1">
         <v>101421511335</v>
@@ -3388,13 +3388,13 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B71">
         <v>70219</v>
       </c>
       <c r="C71" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D71" s="1">
         <v>100893714629</v>
@@ -3426,13 +3426,13 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B72">
         <v>70220</v>
       </c>
       <c r="C72" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D72" s="1">
         <v>100589643082</v>
@@ -3464,13 +3464,13 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B73">
         <v>70221</v>
       </c>
       <c r="C73" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D73" s="1">
         <v>100550179745</v>
@@ -3502,7 +3502,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B74">
         <v>70224</v>
@@ -3540,7 +3540,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B75">
         <v>70225</v>
@@ -3578,7 +3578,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B76">
         <v>70226</v>
@@ -3616,7 +3616,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B77">
         <v>70227</v>
@@ -3654,7 +3654,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B78">
         <v>70228</v>
@@ -3692,7 +3692,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B79">
         <v>70231</v>
@@ -3730,7 +3730,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B80">
         <v>70232</v>
@@ -3768,7 +3768,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B81">
         <v>70233</v>
@@ -3806,7 +3806,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B82">
         <v>70234</v>
@@ -3844,7 +3844,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B83">
         <v>70235</v>
@@ -3882,7 +3882,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B84">
         <v>70236</v>
@@ -3920,7 +3920,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B85">
         <v>70237</v>
@@ -3958,7 +3958,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B86">
         <v>70238</v>
@@ -3996,7 +3996,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B87">
         <v>70239</v>
@@ -4034,7 +4034,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B88">
         <v>70240</v>
@@ -4072,7 +4072,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B89">
         <v>70241</v>
@@ -4110,7 +4110,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B90">
         <v>70242</v>
@@ -4148,7 +4148,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B91">
         <v>70243</v>
@@ -4186,13 +4186,13 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B92">
         <v>70244</v>
       </c>
       <c r="C92" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D92" s="1">
         <v>101710981927</v>
@@ -4224,13 +4224,13 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B93">
         <v>70245</v>
       </c>
       <c r="C93" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D93" s="1">
         <v>101078591088</v>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B94">
         <v>70246</v>
@@ -4300,13 +4300,13 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B95">
         <v>70247</v>
       </c>
       <c r="C95" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D95" s="1">
         <v>101683230686</v>
@@ -4338,13 +4338,13 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B96">
         <v>70248</v>
       </c>
       <c r="C96" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D96" s="1">
         <v>100641237517</v>
@@ -4376,7 +4376,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B97">
         <v>70249</v>
@@ -4414,7 +4414,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B98">
         <v>70250</v>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B99">
         <v>70251</v>
@@ -4490,7 +4490,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B100">
         <v>70252</v>
@@ -4528,13 +4528,13 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B101">
         <v>70253</v>
       </c>
       <c r="C101" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D101" s="1">
         <v>102055470255</v>
@@ -4566,13 +4566,13 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B102">
         <v>70254</v>
       </c>
       <c r="C102" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D102" s="1">
         <v>101309012752</v>
@@ -4604,13 +4604,13 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B103">
         <v>70255</v>
       </c>
       <c r="C103" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D103" s="1">
         <v>102078486673</v>
@@ -4642,13 +4642,13 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B104">
         <v>70256</v>
       </c>
       <c r="C104" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D104" s="1">
         <v>101854128124</v>
@@ -4680,13 +4680,13 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B105">
         <v>70257</v>
       </c>
       <c r="C105" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D105" s="1">
         <v>100370955219</v>
@@ -4718,13 +4718,13 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B106">
         <v>70258</v>
       </c>
       <c r="C106" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D106" s="1">
         <v>101145540893</v>
@@ -4756,13 +4756,13 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B107">
         <v>70259</v>
       </c>
       <c r="C107" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D107" s="1">
         <v>101331295069</v>

--- a/Revised-Data 25-08-24.xlsx
+++ b/Revised-Data 25-08-24.xlsx
@@ -18,12 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="119">
   <si>
-    <t>ESIC NO.</t>
-  </si>
-  <si>
-    <t>UAN NO.</t>
-  </si>
-  <si>
     <t>Basic</t>
   </si>
   <si>
@@ -39,15 +33,6 @@
     <t>Medical</t>
   </si>
   <si>
-    <t>Other Allowance</t>
-  </si>
-  <si>
-    <t>GROSS SALARY</t>
-  </si>
-  <si>
-    <t>Total CTC</t>
-  </si>
-  <si>
     <t>Jayesh Joshi</t>
   </si>
   <si>
@@ -373,6 +358,21 @@
   </si>
   <si>
     <t>Code</t>
+  </si>
+  <si>
+    <t>ESICNO</t>
+  </si>
+  <si>
+    <t>UANNO</t>
+  </si>
+  <si>
+    <t>OtherAllowance</t>
+  </si>
+  <si>
+    <t>GROSSSALARY</t>
+  </si>
+  <si>
+    <t>TotalCTC</t>
   </si>
 </sst>
 </file>
@@ -717,7 +717,7 @@
   <dimension ref="A1:L107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -728,51 +728,51 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" t="s">
         <v>117</v>
       </c>
-      <c r="B1" t="s">
+      <c r="L1" t="s">
         <v>118</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>70001</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1">
         <v>100174872843</v>
@@ -804,13 +804,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>70003</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1">
         <v>100268405363</v>
@@ -842,13 +842,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>70004</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1">
         <v>100251496120</v>
@@ -880,13 +880,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>70005</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1">
         <v>100372715034</v>
@@ -918,13 +918,13 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>70007</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1">
         <v>100572509670</v>
@@ -956,13 +956,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>70008</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1">
         <v>100342515544</v>
@@ -994,13 +994,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>70009</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1">
         <v>100261990336</v>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>70010</v>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>70011</v>
@@ -1108,13 +1108,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>70012</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1">
         <v>100359105475</v>
@@ -1146,13 +1146,13 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>70013</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D12" s="1">
         <v>100279745483</v>
@@ -1184,13 +1184,13 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>70018</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1">
         <v>100422538582</v>
@@ -1222,13 +1222,13 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>70021</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D14" s="1">
         <v>101309481874</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>70022</v>
@@ -1298,7 +1298,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>70023</v>
@@ -1336,13 +1336,13 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>70028</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D17" s="1">
         <v>101360439282</v>
@@ -1374,7 +1374,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>70041</v>
@@ -1412,7 +1412,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>70044</v>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>70045</v>
@@ -1488,7 +1488,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>70051</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>70054</v>
@@ -1564,7 +1564,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>70055</v>
@@ -1602,13 +1602,13 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B24">
         <v>70066</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D24" s="1">
         <v>100161156324</v>
@@ -1640,13 +1640,13 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B25">
         <v>70068</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D25" s="1">
         <v>100590065527</v>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B26">
         <v>70069</v>
@@ -1716,7 +1716,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>70083</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B28">
         <v>70098</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B29">
         <v>70110</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B30">
         <v>70112</v>
@@ -1868,13 +1868,13 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B31">
         <v>70113</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D31" s="1">
         <v>100153699663</v>
@@ -1906,13 +1906,13 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B32">
         <v>70115</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D32" s="1">
         <v>101490412382</v>
@@ -1944,13 +1944,13 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B33">
         <v>70131</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D33" s="1">
         <v>100979743481</v>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B34">
         <v>70135</v>
@@ -2020,13 +2020,13 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>70137</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D35" s="1">
         <v>100234740704</v>
@@ -2058,13 +2058,13 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B36">
         <v>70150</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D36" s="1">
         <v>101578389766</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>70154</v>
@@ -2134,7 +2134,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>70155</v>
@@ -2172,7 +2172,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B39">
         <v>70157</v>
@@ -2210,13 +2210,13 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B40">
         <v>70159</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D40" s="1">
         <v>101602414460</v>
@@ -2248,7 +2248,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B41">
         <v>70163</v>
@@ -2286,7 +2286,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>70165</v>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B43">
         <v>70168</v>
@@ -2362,7 +2362,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B44">
         <v>70169</v>
@@ -2400,7 +2400,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>70173</v>
@@ -2438,13 +2438,13 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B46">
         <v>70175</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D46" s="1">
         <v>100531193317</v>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B47">
         <v>70183</v>
@@ -2514,13 +2514,13 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B48">
         <v>70186</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D48" s="1">
         <v>100882268129</v>
@@ -2552,13 +2552,13 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>70187</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D49" s="1">
         <v>101490988913</v>
@@ -2590,13 +2590,13 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B50">
         <v>70188</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D50" s="1">
         <v>101360438894</v>
@@ -2628,13 +2628,13 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>70189</v>
       </c>
       <c r="C51" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D51" s="1">
         <v>101360439194</v>
@@ -2666,7 +2666,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>70190</v>
@@ -2704,7 +2704,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B53">
         <v>70191</v>
@@ -2742,7 +2742,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B54">
         <v>70194</v>
@@ -2780,7 +2780,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B55">
         <v>70195</v>
@@ -2818,7 +2818,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B56">
         <v>70197</v>
@@ -2856,7 +2856,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>70198</v>
@@ -2894,7 +2894,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B58">
         <v>70199</v>
@@ -2932,7 +2932,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B59">
         <v>70200</v>
@@ -2970,7 +2970,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B60">
         <v>70201</v>
@@ -3008,7 +3008,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B61">
         <v>70202</v>
@@ -3046,7 +3046,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>70203</v>
@@ -3084,13 +3084,13 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B63">
         <v>70204</v>
       </c>
       <c r="C63" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D63" s="1">
         <v>101503557193</v>
@@ -3122,13 +3122,13 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B64">
         <v>70205</v>
       </c>
       <c r="C64" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D64" s="1">
         <v>101506244809</v>
@@ -3160,7 +3160,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B65">
         <v>70206</v>
@@ -3198,7 +3198,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B66">
         <v>70207</v>
@@ -3236,7 +3236,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B67">
         <v>70209</v>
@@ -3274,13 +3274,13 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B68">
         <v>70215</v>
       </c>
       <c r="C68" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D68" s="1">
         <v>101284013919</v>
@@ -3312,13 +3312,13 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B69">
         <v>70216</v>
       </c>
       <c r="C69" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D69" s="1">
         <v>100278324448</v>
@@ -3350,13 +3350,13 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>70217</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D70" s="1">
         <v>101421511335</v>
@@ -3388,13 +3388,13 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B71">
         <v>70219</v>
       </c>
       <c r="C71" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D71" s="1">
         <v>100893714629</v>
@@ -3426,13 +3426,13 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B72">
         <v>70220</v>
       </c>
       <c r="C72" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D72" s="1">
         <v>100589643082</v>
@@ -3464,13 +3464,13 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B73">
         <v>70221</v>
       </c>
       <c r="C73" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D73" s="1">
         <v>100550179745</v>
@@ -3502,7 +3502,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B74">
         <v>70224</v>
@@ -3540,7 +3540,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B75">
         <v>70225</v>
@@ -3578,7 +3578,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>70226</v>
@@ -3616,7 +3616,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B77">
         <v>70227</v>
@@ -3654,7 +3654,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B78">
         <v>70228</v>
@@ -3692,7 +3692,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>70231</v>
@@ -3730,7 +3730,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B80">
         <v>70232</v>
@@ -3768,7 +3768,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B81">
         <v>70233</v>
@@ -3806,7 +3806,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B82">
         <v>70234</v>
@@ -3844,7 +3844,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B83">
         <v>70235</v>
@@ -3882,7 +3882,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>70236</v>
@@ -3920,7 +3920,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B85">
         <v>70237</v>
@@ -3958,7 +3958,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B86">
         <v>70238</v>
@@ -3996,7 +3996,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B87">
         <v>70239</v>
@@ -4034,7 +4034,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B88">
         <v>70240</v>
@@ -4072,7 +4072,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B89">
         <v>70241</v>
@@ -4110,7 +4110,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B90">
         <v>70242</v>
@@ -4148,7 +4148,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B91">
         <v>70243</v>
@@ -4186,13 +4186,13 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B92">
         <v>70244</v>
       </c>
       <c r="C92" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D92" s="1">
         <v>101710981927</v>
@@ -4224,13 +4224,13 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B93">
         <v>70245</v>
       </c>
       <c r="C93" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D93" s="1">
         <v>101078591088</v>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B94">
         <v>70246</v>
@@ -4300,13 +4300,13 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B95">
         <v>70247</v>
       </c>
       <c r="C95" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D95" s="1">
         <v>101683230686</v>
@@ -4338,13 +4338,13 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>70248</v>
       </c>
       <c r="C96" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D96" s="1">
         <v>100641237517</v>
@@ -4376,7 +4376,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>70249</v>
@@ -4414,7 +4414,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B98">
         <v>70250</v>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>70251</v>
@@ -4490,7 +4490,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>70252</v>
@@ -4528,13 +4528,13 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B101">
         <v>70253</v>
       </c>
       <c r="C101" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D101" s="1">
         <v>102055470255</v>
@@ -4566,13 +4566,13 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>70254</v>
       </c>
       <c r="C102" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D102" s="1">
         <v>101309012752</v>
@@ -4604,13 +4604,13 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>70255</v>
       </c>
       <c r="C103" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D103" s="1">
         <v>102078486673</v>
@@ -4642,13 +4642,13 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>70256</v>
       </c>
       <c r="C104" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D104" s="1">
         <v>101854128124</v>
@@ -4680,13 +4680,13 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B105">
         <v>70257</v>
       </c>
       <c r="C105" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D105" s="1">
         <v>100370955219</v>
@@ -4718,13 +4718,13 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B106">
         <v>70258</v>
       </c>
       <c r="C106" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D106" s="1">
         <v>101145540893</v>
@@ -4756,13 +4756,13 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B107">
         <v>70259</v>
       </c>
       <c r="C107" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D107" s="1">
         <v>101331295069</v>
